--- a/data/trans_dic/P25A_8_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_8_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida</t>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,51</t>
+          <t>0,0; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,64</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,27</t>
+          <t>0,0; 10,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,21</t>
+          <t>1,91; 17,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 10,02</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,84</t>
+          <t>3,32; 20,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,68</t>
+          <t>0,0; 8,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 9,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 16,94</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 11,8</t>
+          <t>1,66; 19,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 12,03</t>
+          <t>1,75; 17,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,15</t>
+          <t>1,98; 21,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,9</t>
+          <t>3,01; 27,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,82</t>
+          <t>0,0; 9,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 17,33</t>
+          <t>1,68; 14,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,43</t>
+          <t>2,98; 18,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,55</t>
+          <t>5,13; 24,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 12,36</t>
+          <t>1,62; 10,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 12,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 17,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 20,8</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,9</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,15</t>
+          <t>0,0; 8,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,95</t>
+          <t>4,43; 21,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,84</t>
+          <t>1,02; 9,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 13,27</t>
+          <t>2,02; 11,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,76</t>
+          <t>4,13; 17,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,65</t>
+          <t>4,12; 15,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,06</t>
+          <t>1,72; 7,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 8,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 12,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 14,26</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,75</t>
+          <t>2,74; 15,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 12,81</t>
+          <t>3,12; 15,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 11,46</t>
+          <t>2,42; 13,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,71</t>
+          <t>2,96; 13,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,0</t>
+          <t>1,77; 10,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,38</t>
+          <t>0,96; 8,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,36</t>
+          <t>3,19; 14,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,58</t>
+          <t>2,03; 8,29</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 10,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 9,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 11,27</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,96</t>
+          <t>0,0; 10,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,27</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 18,71</t>
+          <t>1,51; 27,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,5</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 10,08</t>
+          <t>1,49; 13,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,29</t>
+          <t>1,72; 12,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,21</t>
+          <t>3,9; 23,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,46</t>
+          <t>4,19; 22,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,73</t>
+          <t>1,5; 8,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 6,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 23,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 11,98</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,08</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,36</t>
+          <t>0,0; 12,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 13,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,6</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 21,13</t>
+          <t>0,0; 8,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,02</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,6</t>
+          <t>3,64; 24,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 15,86</t>
+          <t>0,0; 9,51</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 16,21</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>4,13%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,49</t>
+          <t>1,56; 5,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,24</t>
+          <t>1,93; 5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,65</t>
+          <t>2,85; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,74</t>
+          <t>4,44; 11,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,48</t>
+          <t>2,66; 6,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,88</t>
+          <t>3,36; 7,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,21</t>
+          <t>4,22; 9,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,83</t>
+          <t>7,35; 13,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,94</t>
+          <t>2,53; 5,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 6,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 8,17</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 11,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10700</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2694</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4313</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14155</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4313</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24855</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 38528</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13769</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2295; 21316</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14478</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4829; 29459</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20252</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2336; 21892</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15187</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11399; 49334</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8440</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13858</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25762</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5306</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7402</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11206</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21114</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15587</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15841</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25064</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46875</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2802; 32111</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2510; 25663</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3059; 33896</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6848; 62689</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16439</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2129; 18516</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3758; 23734</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8333; 39091</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5395; 33534</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5491; 33491</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11900; 48681</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21785; 81149</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5692</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2748</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18724</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19618</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15792</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13279</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21790</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38342</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17805</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12048</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7985; 38622</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2683; 23718</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4109; 23165</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8273; 34957</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9881; 36548</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7280; 31357</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4935; 27470</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11128; 40592</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22020; 59867</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12765</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11679</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12999</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15058</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8521</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6311</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16359</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17322</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21287</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17990</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29359</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11550</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4419; 25560</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4810; 23483</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4878; 26915</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6455; 28514</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3298; 18828</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1661; 14523</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6787; 30241</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8154; 33348</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11330; 36002</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8836; 32205</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14388; 46681</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11410</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6062</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14777</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10664</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6809</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21547</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19034</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16376</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1832; 32994</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15305</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1696; 15147</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1617; 12166</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3610; 21376</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5748; 30912</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4023; 23028</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1715; 15770</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10193; 49935</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8599; 34932</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2762</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21306</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6702</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4087</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24068</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11182</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14346</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13294</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9134</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13608</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6624; 44240</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 23470</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14477</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15900</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10330; 51873</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>29781</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27945</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40690</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75203</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>42454</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>42747</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53298</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>107329</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>72236</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>70691</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>93988</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>182532</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13833; 49960</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14727; 45574</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22291; 70970</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>46538; 115945</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>27346; 64477</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28098; 61299</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>34833; 75503</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>79365; 145797</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48457; 101968</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>50725; 96315</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>67475; 131301</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>139682; 240093</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>